--- a/Document/요구사항1711122정리본.xlsx
+++ b/Document/요구사항1711122정리본.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KKW\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="6030" activeTab="1"/>
   </bookViews>
@@ -17,8 +12,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
   <si>
     <t>1.1 컴퓨터 화면 이미지에서 수식을 인식</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 1. 1. 기본으로 지정된 구역이 있고, 사용자가 인식할 구역을 임의로 지정할 수 있어야 한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1 카메라로 수식을 촬영하여 인식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,15 +291,310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.2.2.1. 저장된 이미지의 수식이 있는 부분을 지정할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2.2. 수식이 있는 사진만을 따로 인식하여 불러올 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1. 저장된 이미지를 앨범에서 불러올 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2. 결과의 길이가 길다면 스크롤뷰로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1.1. 시간에 따른 순서대로 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2. 사용자 편의성에 맞게 결과를 표시해 주어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1. 사용자가 답, 그래프, 풀이 중에 여러 가지를 선택할 수 있도록, 기능을 제공해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3. 수식을 인식하면 사용자가 원하는 수식이 맞는지 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1. 수식이 맞는 경우 원하는 결과를 보여줄 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2. 수식이 다른 경우에도 원하는 결과를 보여줄 수 있게 해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2.1. 다시 촬영할 수 있도록 해주어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2.2. 어플리케이션이 촬영 결과와 유사한 수식을 제시해주어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2.3. 사용자가 수식을 수정할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1. 사칙연산 기호와 등호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2. 부등호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3. ± 기호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4. 분수를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4.1 연분수를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5. 지수 및 밑 첨자를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6. 루트 기호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6.1. n제곱근의 첨자를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8. 미지수를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7. 절댓값을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9. 허수(i)를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10. 상수 e를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11. 괄호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11.1. 일반 괄호와 행렬 괄호를 구분할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11.2. 대괄호,중괄호,소괄호를 구분할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12. log를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12.1. 자연로그(ln)을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.12.2. log의 밑수를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.1. 영어로 된 미지수를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8.2. 그리스 문자로 된 미지수를 인식할 수 있어야 한다.( ex) α, β, γ, θ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13. π기호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15. 극한 기호(lim)를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15.1. 좌극한을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.15.2. 우극한을 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.17. 적분 기호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.16. 미분 기호를 인식할 수 있어야 한다. ( ex) dx/dy , f'(x), Δx/Δy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.17.1. 정적분의 범위를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18. 수열 기호( Σ )를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.19. 순열 및 조합 기호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18.1. nPr 기호를 인식해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18.2 nCr 기호를 인식해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18.3 팩토리얼(!) 기호를 인식해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1. 사칙 연산을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5. 서술형 문제를 인식 해야 한다.</t>
+  </si>
+  <si>
+    <t>5.14. 삼각한다.수를 인식할 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>6.2. 방정식을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.1. 연립방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.2.1.1. 연립 방정식의 미지수의 개수는 3개로 제한한다.</t>
+  </si>
+  <si>
+    <t>6.2.1.2. 방정식의 차수를 5차까지 제한한다.</t>
+  </si>
+  <si>
+    <t>6.2.2. 다항방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.2.2.1. 방정식의 차수를 5차까지 제한한다.</t>
+  </si>
+  <si>
+    <t>6.2.3. 지수 방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.2.4. 로그 방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.2.4. 미분 방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.2.5. 적분 방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.2.6. 삼각함수 방정식을 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>6.3. 함수를 지원해야 한다.</t>
+  </si>
+  <si>
+    <t>5.20. 무한 기호를 인식할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4. 시그마 연산을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5. 순열 및 조합 연산을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6. 행렬 연산을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.1. 행렬의 합을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.2. 행렬의 곱을 지원해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6.3. 행렬의 역행렬을 구할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.1. 함수의 변수는 3개로 제한한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2. 함수의 그래프를 그릴 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.3. 함수의 극한을 구할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.4. 함수의 미분을 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.5. 함수의 적분을 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1. 보여줄수 있는 결과(값의 해, 그래프, 풀이) 중 사용자가 원하는 결과를 표시해 주어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1. 기본으로 지정된 구역이 있고, 사용자가 인식할 구역을 임의로 지정할 수 있어야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 사용 설명을 제공해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 과거의 풀이를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2. 많이 열어본 순서대로 보여줄 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>3.2.3. 과거의 풀이를 즐겨찾기하여 모아 볼 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>3.2.1. 시간 순서대로 풀이를 보여줄 수 있어야 한다.</t>
+  </si>
+  <si>
     <t>1. 이미지에서 문제를 인식해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.2.1. 저장된 이미지의 수식이 있는 부분을 지정할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.2.2. 수식이 있는 사진만을 따로 인식하여 불러올 수 있어야 한다.</t>
+  </si>
+  <si>
+    <t>요구사항 분석서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,322 +602,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1. 저장된 이미지를 앨범에서 불러올 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2. 결과의 길이가 길다면 스크롤뷰로 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.1.1. 시간에 따른 순서대로 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2. 사용자 편의성에 맞게 결과를 표시해 주어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.1. 사용자가 답, 그래프, 풀이 중에 여러 가지를 선택할 수 있도록, 기능을 제공해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3. 수식을 인식하면 사용자가 원하는 수식이 맞는지 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.1. 수식이 맞는 경우 원하는 결과를 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2. 수식이 다른 경우에도 원하는 결과를 보여줄 수 있게 해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2.1. 다시 촬영할 수 있도록 해주어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2.2. 어플리케이션이 촬영 결과와 유사한 수식을 제시해주어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2.3. 사용자가 수식을 수정할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 사용자 편의성을 갖추어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 사용 설명을 제공해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 과거의 풀이를 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.1. 시간 순서대로 풀이를 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.1.1. 최근 순서대로 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.1.2. 오래된 순서대로 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.2. 많이 열어본 순서대로 보여줄 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3.3. 과거의 풀이를 즐겨찾기하여 모아 볼 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1. 사칙연산 기호와 등호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2. 부등호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3. ± 기호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4. 분수를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4.1 연분수를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5. 지수 및 밑 첨자를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6. 루트 기호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6.1. n제곱근의 첨자를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.8. 미지수를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7. 절댓값을 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.9. 허수(i)를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.10. 상수 e를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.11. 괄호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.11.1. 일반 괄호와 행렬 괄호를 구분할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.11.2. 대괄호,중괄호,소괄호를 구분할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.12. log를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.12.1. 자연로그(ln)을 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.12.2. log의 밑수를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.8.1. 영어로 된 미지수를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.8.2. 그리스 문자로 된 미지수를 인식할 수 있어야 한다.( ex) α, β, γ, θ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.13. π기호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.15. 극한 기호(lim)를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.15.1. 좌극한을 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.15.2. 우극한을 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.17. 적분 기호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.16. 미분 기호를 인식할 수 있어야 한다. ( ex) dx/dy , f'(x), Δx/Δy)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.17.1. 정적분의 범위를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.18. 수열 기호( Σ )를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.19. 순열 및 조합 기호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.18.1. nPr 기호를 인식해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.18.2 nCr 기호를 인식해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.18.3 팩토리얼(!) 기호를 인식해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.여러 연산을 지원 해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1. 사칙 연산을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5. 서술형 문제를 인식 해야 한다.</t>
-  </si>
-  <si>
-    <t>5.14. 삼각한다.수를 인식할 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>6.2. 방정식을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2.1. 연립방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.2.1.1. 연립 방정식의 미지수의 개수는 3개로 제한한다.</t>
-  </si>
-  <si>
-    <t>6.2.1.2. 방정식의 차수를 5차까지 제한한다.</t>
-  </si>
-  <si>
-    <t>6.2.2. 다항방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.2.2.1. 방정식의 차수를 5차까지 제한한다.</t>
-  </si>
-  <si>
-    <t>6.2.3. 지수 방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.2.4. 로그 방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.2.4. 미분 방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.2.5. 적분 방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.2.6. 삼각함수 방정식을 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>6.3. 함수를 지원해야 한다.</t>
-  </si>
-  <si>
-    <t>5.20. 무한 기호를 인식할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.4. 시그마 연산을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.5. 순열 및 조합 연산을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6. 행렬 연산을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6.1. 행렬의 합을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6.2. 행렬의 곱을 지원해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6.3. 행렬의 역행렬을 구할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.1. 함수의 변수는 3개로 제한한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.2. 함수의 그래프를 그릴 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.3. 함수의 극한을 구할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.4. 함수의 미분을 할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.5. 함수의 적분을 할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.여러 수학 기호를 인식할 수 있어야 한다. (+,-,*등등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1. 보여줄수 있는 결과(값의 해, 그래프, 풀이) 중 사용자가 원하는 결과를 표시해 주어야 한다.</t>
+    <t>3. 사용자 편의성을 갖추어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.여러 수학 기호를 인식할 수 있어야 한다. (+,-,*등등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.여러 연산을 지원 해야한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +649,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -671,7 +676,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -889,13 +894,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +1047,69 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,21 +1417,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="6" width="11.75" style="1" customWidth="1"/>
@@ -1319,7 +1444,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1339,7 +1464,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="27" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1486,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1381,7 +1506,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="5"/>
       <c r="B4" s="16" t="s">
         <v>23</v>
@@ -1403,7 +1528,7 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="5"/>
       <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
@@ -1425,7 +1550,7 @@
       <c r="Q5" s="20"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="5"/>
       <c r="B6" s="17"/>
       <c r="C6" s="6" t="s">
@@ -1447,7 +1572,7 @@
       <c r="Q6" s="20"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="5"/>
       <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
@@ -1469,7 +1594,7 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="5"/>
       <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
@@ -1491,7 +1616,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="5"/>
       <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
@@ -1513,7 +1638,7 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="17"/>
       <c r="C10" s="6"/>
@@ -1533,7 +1658,7 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="16" t="s">
         <v>19</v>
@@ -1555,7 +1680,7 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
@@ -1577,7 +1702,7 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
@@ -1599,7 +1724,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
@@ -1621,7 +1746,7 @@
       <c r="Q14" s="20"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="17"/>
       <c r="C15" s="6"/>
@@ -1641,7 +1766,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="5"/>
       <c r="B16" s="16" t="s">
         <v>20</v>
@@ -1663,7 +1788,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="5"/>
       <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
@@ -1685,7 +1810,7 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="5"/>
       <c r="B18" s="17"/>
       <c r="C18" s="6" t="s">
@@ -1707,7 +1832,7 @@
       <c r="Q18" s="20"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="5"/>
       <c r="B19" s="17"/>
       <c r="C19" s="6"/>
@@ -1727,7 +1852,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="5"/>
       <c r="B20" s="16" t="s">
         <v>26</v>
@@ -1749,7 +1874,7 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="5"/>
       <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
@@ -1771,7 +1896,7 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="5"/>
       <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
@@ -1793,7 +1918,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="5"/>
       <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
@@ -1815,7 +1940,7 @@
       <c r="Q23" s="20"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="5"/>
       <c r="B24" s="17"/>
       <c r="C24" s="6"/>
@@ -1835,7 +1960,7 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="5"/>
       <c r="B25" s="16" t="s">
         <v>29</v>
@@ -1857,7 +1982,7 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="5"/>
       <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
@@ -1879,7 +2004,7 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="5"/>
       <c r="B27" s="17"/>
       <c r="C27" s="6"/>
@@ -1901,7 +2026,7 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="5"/>
       <c r="B28" s="17"/>
       <c r="C28" s="6"/>
@@ -1923,7 +2048,7 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="5"/>
       <c r="B29" s="17"/>
       <c r="C29" s="6" t="s">
@@ -1945,7 +2070,7 @@
       <c r="Q29" s="20"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="5"/>
       <c r="B30" s="17"/>
       <c r="C30" s="6" t="s">
@@ -1967,7 +2092,7 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="5"/>
       <c r="B31" s="17"/>
       <c r="C31" s="6" t="s">
@@ -1989,7 +2114,7 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="5"/>
       <c r="B32" s="17"/>
       <c r="C32" s="6"/>
@@ -2011,7 +2136,7 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" s="5"/>
       <c r="B33" s="17"/>
       <c r="C33" s="6"/>
@@ -2033,7 +2158,7 @@
       <c r="Q33" s="20"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="5"/>
       <c r="B34" s="17"/>
       <c r="C34" s="6"/>
@@ -2055,7 +2180,7 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" s="5"/>
       <c r="B35" s="17"/>
       <c r="C35" s="6" t="s">
@@ -2077,7 +2202,7 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" s="5"/>
       <c r="B36" s="17"/>
       <c r="C36" s="6"/>
@@ -2099,7 +2224,7 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" s="5"/>
       <c r="B37" s="17"/>
       <c r="C37" s="6"/>
@@ -2121,7 +2246,7 @@
       <c r="Q37" s="20"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" s="5"/>
       <c r="B38" s="17"/>
       <c r="C38" s="6"/>
@@ -2143,7 +2268,7 @@
       <c r="Q38" s="20"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" s="5"/>
       <c r="B39" s="17"/>
       <c r="C39" s="6" t="s">
@@ -2165,7 +2290,7 @@
       <c r="Q39" s="20"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" s="5"/>
       <c r="B40" s="17"/>
       <c r="C40" s="6" t="s">
@@ -2187,7 +2312,7 @@
       <c r="Q40" s="20"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41" s="5"/>
       <c r="B41" s="17"/>
       <c r="C41" s="6"/>
@@ -2209,7 +2334,7 @@
       <c r="Q41" s="20"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42" s="5"/>
       <c r="B42" s="17"/>
       <c r="C42" s="6" t="s">
@@ -2231,7 +2356,7 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43" s="5"/>
       <c r="B43" s="17"/>
       <c r="C43" s="6" t="s">
@@ -2253,7 +2378,7 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44" s="5"/>
       <c r="B44" s="17"/>
       <c r="C44" s="6"/>
@@ -2275,7 +2400,7 @@
       <c r="Q44" s="20"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45" s="5"/>
       <c r="B45" s="17"/>
       <c r="C45" s="6" t="s">
@@ -2297,7 +2422,7 @@
       <c r="Q45" s="20"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46" s="5"/>
       <c r="B46" s="17"/>
       <c r="C46" s="6"/>
@@ -2319,7 +2444,7 @@
       <c r="Q46" s="20"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47" s="5"/>
       <c r="B47" s="17"/>
       <c r="C47" s="6"/>
@@ -2341,7 +2466,7 @@
       <c r="Q47" s="20"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48" s="5"/>
       <c r="B48" s="17"/>
       <c r="C48" s="6"/>
@@ -2363,7 +2488,7 @@
       <c r="Q48" s="20"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="5"/>
       <c r="B49" s="17"/>
       <c r="C49" s="6"/>
@@ -2385,7 +2510,7 @@
       <c r="Q49" s="20"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="5"/>
       <c r="B50" s="17"/>
       <c r="C50" s="6" t="s">
@@ -2407,7 +2532,7 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51" s="5"/>
       <c r="B51" s="18"/>
       <c r="C51" s="13"/>
@@ -2427,7 +2552,7 @@
       <c r="Q51" s="21"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="14.25" thickBot="1">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2447,42 +2572,42 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
@@ -2513,404 +2638,701 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:I49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="D4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="D5" s="25" t="s">
-        <v>60</v>
-      </c>
+    <row r="2" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:15">
+      <c r="B3" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="30"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="D6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="D7" s="25" t="s">
-        <v>62</v>
-      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="30"/>
+      <c r="C7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E9" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="25" t="s">
-        <v>64</v>
-      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="26" t="s">
-        <v>72</v>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="31"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="30"/>
+      <c r="C15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E15" s="25" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="30"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="31"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D18" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D21" s="25"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="30"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="N25" s="25"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
-        <v>75</v>
-      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="30"/>
+      <c r="C26" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="31"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D27" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="27"/>
+    <row r="27" spans="2:15">
+      <c r="B27" s="30"/>
+      <c r="C27" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="31"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15">
+      <c r="B28" s="30"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="31"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C29" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="25"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="30"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="31"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D30" s="25" t="s">
-        <v>78</v>
-      </c>
+    <row r="30" spans="2:15">
+      <c r="B30" s="30"/>
+      <c r="C30" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="31"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D31" s="27" t="s">
-        <v>79</v>
+    <row r="31" spans="2:15">
+      <c r="B31" s="30"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="31"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E32" s="25" t="s">
-        <v>80</v>
-      </c>
+    <row r="32" spans="2:15">
+      <c r="B32" s="30"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="25"/>
       <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="31"/>
       <c r="N32" s="25"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E33" s="27" t="s">
-        <v>81</v>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="30"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="31"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15">
+      <c r="B34" s="30"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="31"/>
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15">
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15">
+      <c r="B36" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43"/>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="25"/>
+    <row r="37" spans="2:15">
+      <c r="B37" s="30"/>
+      <c r="C37" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="31"/>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
+    <row r="38" spans="2:15">
+      <c r="B38" s="30"/>
       <c r="C38" s="25" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="31"/>
       <c r="N38" s="25"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="25"/>
+    <row r="39" spans="2:15">
+      <c r="B39" s="30"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="31"/>
       <c r="N39" s="25"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="25"/>
+    <row r="40" spans="2:15">
+      <c r="B40" s="30"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="25" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="31"/>
       <c r="N40" s="25"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D41" s="25"/>
-      <c r="E41" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="25"/>
+    <row r="41" spans="2:15">
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
       <c r="N41" s="25"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D42" s="25"/>
-      <c r="E42" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="25"/>
       <c r="N42" s="25"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D43" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="25"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D44" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-    </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P77" s="27"/>
-    </row>
-    <row r="92" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="L93" s="25"/>
-    </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="L94" s="25"/>
-    </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="L95" s="25"/>
-    </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="L96" s="25"/>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L97" s="25"/>
+    <row r="44" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="34"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="25"/>
+    </row>
+    <row r="62" spans="16:16">
+      <c r="P62" s="27"/>
+    </row>
+    <row r="77" spans="9:12">
+      <c r="I77" s="25"/>
+    </row>
+    <row r="78" spans="9:12">
+      <c r="L78" s="25"/>
+    </row>
+    <row r="79" spans="9:12">
+      <c r="L79" s="25"/>
+    </row>
+    <row r="80" spans="9:12">
+      <c r="L80" s="25"/>
+    </row>
+    <row r="81" spans="12:12">
+      <c r="L81" s="25"/>
+    </row>
+    <row r="82" spans="12:12">
+      <c r="L82" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:L4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2918,18 +3340,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H61"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8">
       <c r="B2" s="26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2938,9 +3360,9 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8">
       <c r="B3" s="26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -2949,9 +3371,9 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4" s="26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -2960,10 +3382,10 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -2971,10 +3393,10 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -2982,9 +3404,9 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" s="26" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2993,9 +3415,9 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
       <c r="B8" s="26" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -3004,10 +3426,10 @@
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8">
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -3015,9 +3437,9 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8">
       <c r="B10" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -3026,9 +3448,9 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="B11" s="26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3037,10 +3459,10 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="B12" s="26"/>
       <c r="C12" s="26" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -3048,10 +3470,10 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -3059,10 +3481,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8">
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -3070,9 +3492,9 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
       <c r="B15" s="26" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -3081,9 +3503,9 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="B16" s="26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -3092,9 +3514,9 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17" s="26" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -3103,9 +3525,9 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" s="26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -3114,9 +3536,9 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -3125,10 +3547,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -3136,9 +3558,9 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3147,9 +3569,9 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8">
       <c r="B22" s="26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -3158,10 +3580,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8">
       <c r="B23" s="26"/>
       <c r="C23" s="26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -3169,9 +3591,9 @@
       <c r="G23" s="27"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8">
       <c r="B24" s="26" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3180,9 +3602,9 @@
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" s="26" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3191,10 +3613,10 @@
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8">
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -3202,10 +3624,10 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8">
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -3213,9 +3635,9 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8">
       <c r="B28" s="26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -3224,9 +3646,9 @@
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8">
       <c r="B29" s="26" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -3235,9 +3657,9 @@
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8">
       <c r="B30" s="26" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -3246,10 +3668,10 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8">
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -3257,10 +3679,10 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8">
       <c r="B32" s="26"/>
       <c r="C32" s="26" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -3268,9 +3690,9 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8">
       <c r="B33" s="26" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -3279,10 +3701,10 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8">
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -3290,10 +3712,10 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8">
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -3301,7 +3723,7 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8">
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -3310,171 +3732,171 @@
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8">
       <c r="B38" s="26" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8">
       <c r="B39" s="26" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8">
       <c r="B40" s="26"/>
       <c r="C40" s="26" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8">
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="26"/>
       <c r="C43" s="26" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D43" s="26"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8">
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="26"/>
       <c r="C45" s="26" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D45" s="26"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8">
       <c r="B46" s="26"/>
       <c r="C46" s="26" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8">
       <c r="B47" s="26"/>
       <c r="C47" s="26" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8">
       <c r="B48" s="26"/>
       <c r="C48" s="26" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D48" s="26"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4">
       <c r="B49" s="26"/>
       <c r="C49" s="26" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D49" s="26"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4">
       <c r="B50" s="26" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4">
       <c r="B51" s="26"/>
       <c r="C51" s="26" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D51" s="26"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4">
       <c r="B52" s="26"/>
       <c r="C52" s="26" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D52" s="26"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4">
       <c r="B53" s="26"/>
       <c r="C53" s="26" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D53" s="26"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4">
       <c r="B54" s="26"/>
       <c r="C54" s="26" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4">
       <c r="B55" s="26"/>
       <c r="C55" s="26" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D55" s="26"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4">
       <c r="B56" s="26" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4">
       <c r="B57" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4">
       <c r="B58" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4">
       <c r="B59" s="26"/>
       <c r="C59" s="26" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D59" s="26"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4">
       <c r="B60" s="26"/>
       <c r="C60" s="26" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D60" s="26"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4">
       <c r="B61" s="26"/>
       <c r="C61" s="26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D61" s="26"/>
     </row>
